--- a/Taller 2/0.Insumos/RL/Rl.xlsx
+++ b/Taller 2/0.Insumos/RL/Rl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jelondos\OneDrive - Crystal S.A.S\Desktop\propios\Big Data\Modulo 1 Taller\Curso-Big-Data\Taller 2\0.Insumos\RL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\Curso-Big-Data\Taller 2\0.Insumos\RL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F23AA39-64D3-42F3-B499-5483189DDB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A5908-6A7F-4D35-8581-62D620F79CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Texto</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>(Torres et al , 2022)</t>
+  </si>
+  <si>
+    <t>Marí-Klose, P., &amp; Marí-Klose, M. (2012). Edad, vulnerabilidad económica y Estado de bienestar: La protección social contra la pobreza de niños y personas mayores. Panorama Social, (15), 107-117.</t>
+  </si>
+  <si>
+    <t>Sánchez Torres, R. M., Manzano Murillo, L. D., &amp; Maturana Cifuentes, L. A. (2022). Informalidad laboral, pobreza monetaria y multidimensional en Bogotá y el Área Metropolitana. Problemas del Desarrollo. Revista Latinoamericana de Economía, 53(208), 31-56. https://doi.org/10.22201/iiec.20078951e.2022.208.69754</t>
   </si>
 </sst>
 </file>
@@ -369,19 +375,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -403,7 +409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -412,6 +418,16 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
